--- a/Document/MeetingMinute/25052015.xlsx
+++ b/Document/MeetingMinute/25052015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -53,6 +53,20 @@
   </si>
   <si>
     <t>Task: ai assign, assign cho ai?</t>
+  </si>
+  <si>
+    <t>Đã thay đổi lại cách dùng từ.
+Đã thêm thuộc tính vào task và project để ghi lại đánh giá theo task or project.
+Đã sửa lại quan hệ assign là 1-n</t>
+  </si>
+  <si>
+    <t>ban đầu dtb đã có thuộc tính này, không cần sửa.</t>
+  </si>
+  <si>
+    <t>đồng ý có mối quan hệ 3 ngôi giữa 4 class này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đã có lưu lại trong task changelog </t>
   </si>
 </sst>
 </file>
@@ -76,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +146,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +460,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +495,9 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -480,7 +509,9 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -490,7 +521,7 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -500,7 +531,9 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -510,7 +543,9 @@
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
